--- a/CYBER-SECURITY-TIME.xlsx
+++ b/CYBER-SECURITY-TIME.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwc\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwc\Documents\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$28</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>CORE CONCEPTS</t>
   </si>
@@ -38,9 +41,6 @@
     <t xml:space="preserve">C2: </t>
   </si>
   <si>
-    <t xml:space="preserve">Career planning </t>
-  </si>
-  <si>
     <t xml:space="preserve">C3: </t>
   </si>
   <si>
@@ -74,9 +74,6 @@
     <t>C8:</t>
   </si>
   <si>
-    <t>Cryptography, encryption, security keys and authentication.</t>
-  </si>
-  <si>
     <t>C9:</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t xml:space="preserve">C10: </t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction to computer programming </t>
-  </si>
-  <si>
     <t xml:space="preserve">C11: </t>
   </si>
   <si>
@@ -143,27 +137,15 @@
     <t xml:space="preserve">Advanced networking. </t>
   </si>
   <si>
-    <t>Wireless networking setup. TCP/IP IPV4 and IPV6 DHCP</t>
-  </si>
-  <si>
     <t xml:space="preserve">A3: </t>
   </si>
   <si>
     <t>Advanced Linux server configuration.</t>
   </si>
   <si>
-    <t>NS, DHCP, HTTPD FTP, SQL, MAIL.</t>
-  </si>
-  <si>
     <t>A4:</t>
   </si>
   <si>
-    <t>Advanced authentication.  Amazon Web Services</t>
-  </si>
-  <si>
-    <t>(https://www.awseducate.com/Registration)</t>
-  </si>
-  <si>
     <t>Advanced Computer Programming (Python, PHP, C, C++,  Java, and SQL)</t>
   </si>
   <si>
@@ -176,12 +158,6 @@
     <t>Advanced projects:  Docker, Kubernetes, and Facebook CTF (Capture The Flag)</t>
   </si>
   <si>
-    <t>USCyberPatriot team competition. https://www.uscyberpatriot.org/</t>
-  </si>
-  <si>
-    <t>AWS (Amazon Web Services) Linux configuration and security rules.</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -197,12 +173,6 @@
     <t xml:space="preserve">A6: </t>
   </si>
   <si>
-    <t>Cryptography, encryption and standard security keys advanced.</t>
-  </si>
-  <si>
-    <t>Year 1 Culminating Small Group Project (Includes CTF)</t>
-  </si>
-  <si>
     <t>Year 2 Projects</t>
   </si>
   <si>
@@ -210,13 +180,115 @@
   </si>
   <si>
     <t xml:space="preserve">A9: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2. </t>
+  </si>
+  <si>
+    <t>Career planning (Tri-Tech Portfolio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4. </t>
+  </si>
+  <si>
+    <t>C5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7. </t>
+  </si>
+  <si>
+    <t>C8.</t>
+  </si>
+  <si>
+    <t>Cryptography, encryption, security keys and authentication introduction.</t>
+  </si>
+  <si>
+    <t>C9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to computer programming (Python, PHP, C, C++,  Java, and SQL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11. </t>
+  </si>
+  <si>
+    <t>C12.</t>
+  </si>
+  <si>
+    <t>C13.</t>
+  </si>
+  <si>
+    <t>C14.</t>
+  </si>
+  <si>
+    <t>C15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17. </t>
+  </si>
+  <si>
+    <t>Year 1 Projects</t>
+  </si>
+  <si>
+    <t>ADVANCED CONCEPTS TABLE OF CONTENTS</t>
+  </si>
+  <si>
+    <t>A1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3. </t>
+  </si>
+  <si>
+    <t>A4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced authentication. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5. </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Cyber Patriot team competition. https://www.uscyberpatriot.org </t>
+  </si>
+  <si>
+    <t>A7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Projects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows server installation and configuration </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +298,19 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -252,10 +337,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,398 +659,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F31491-DC8D-41DD-B00A-D5AA7D15CE53}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="16284" ySplit="3648" topLeftCell="F13" activePane="bottomLeft"/>
+      <pane xSplit="20124" ySplit="7008" topLeftCell="F37"/>
+      <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B39:B64"/>
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="98.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
+    <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F1" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <f>SUM(C3:C19)</f>
         <v>540</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>SUM(D3:D19)+D21</f>
         <v>540</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="3" t="str">
+        <f>B39</f>
+        <v>Safety</v>
+      </c>
+      <c r="C3" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="str">
+        <f>B40</f>
+        <v>Career planning (Tri-Tech Portfolio)</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="str">
+        <f>B41</f>
+        <v xml:space="preserve">Security ethics, security levels, security threats and defensive security.  </v>
+      </c>
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B6" s="3" t="str">
+        <f>B42</f>
+        <v>Linux installation, configuration, directory structure and Bash. Linux users and permissions</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>B43</f>
+        <v>Linux command line and introduction to BASH scripting. (BASH)</v>
+      </c>
+      <c r="C7" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B8" s="3" t="str">
+        <f>B44</f>
+        <v>Linux server service installation and configuration. (Apache2, VSFTPD, Samba, and SSH)</v>
+      </c>
+      <c r="C8" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="str">
+        <f>B45</f>
+        <v xml:space="preserve">HTML </v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="3" t="str">
+        <f>B46</f>
+        <v>Cryptography, encryption, security keys and authentication introduction.</v>
+      </c>
+      <c r="C10" s="3">
         <f>2.5*10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>B47</f>
+        <v>GIT and Github.com basics.</v>
+      </c>
+      <c r="C11" s="3">
         <f>2.5*20</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>B48</f>
+        <v xml:space="preserve">Introduction to computer programming (Python, PHP, C, C++,  Java, and SQL) </v>
+      </c>
+      <c r="C12" s="3">
         <f>2.5*5*4</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>B49</f>
+        <v xml:space="preserve">Computer basics </v>
+      </c>
+      <c r="C13" s="3">
         <f>2.5*10</f>
         <v>25</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>B50</f>
+        <v>Networking.</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>B51</f>
+        <v xml:space="preserve">Linux Vitalization.  </v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>B52</f>
+        <v xml:space="preserve">Microsoft </v>
+      </c>
+      <c r="C16" s="3">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>B53</f>
+        <v>Mathematics, base conversions, logic gates and computer science mathematics.</v>
+      </c>
+      <c r="C17" s="3">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>B54</f>
+        <v>Introduction to electronics and micro-controllers (Arduino)</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>B55</f>
+        <v>Year 1 Projects</v>
+      </c>
+      <c r="C19" s="3">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <f>SUM(D22:D34)</f>
+        <v>340</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1">
-        <f>SUM(D22:D34)</f>
-        <v>420</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1">
-        <f>2.5*10</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="1" t="s">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CYBER-SECURITY-TIME.xlsx
+++ b/CYBER-SECURITY-TIME.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>CORE CONCEPTS</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Microsoft Windows server installation and configuration </t>
+  </si>
+  <si>
+    <t>Linux Virtuliztion</t>
   </si>
 </sst>
 </file>
@@ -661,9 +664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F31491-DC8D-41DD-B00A-D5AA7D15CE53}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="20124" ySplit="7008" topLeftCell="F37"/>
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B64" sqref="B39:B64"/>
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
@@ -712,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>B39</f>
+        <f t="shared" ref="B3:B19" si="0">B39</f>
         <v>Safety</v>
       </c>
       <c r="C3" s="3">
@@ -728,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>B40</f>
+        <f t="shared" si="0"/>
         <v>Career planning (Tri-Tech Portfolio)</v>
       </c>
       <c r="C4" s="3">
@@ -744,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>B41</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Security ethics, security levels, security threats and defensive security.  </v>
       </c>
       <c r="C5" s="3">
@@ -758,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>B42</f>
+        <f t="shared" si="0"/>
         <v>Linux installation, configuration, directory structure and Bash. Linux users and permissions</v>
       </c>
       <c r="C6" s="3">
@@ -772,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>B43</f>
+        <f t="shared" si="0"/>
         <v>Linux command line and introduction to BASH scripting. (BASH)</v>
       </c>
       <c r="C7" s="3">
@@ -786,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>B44</f>
+        <f t="shared" si="0"/>
         <v>Linux server service installation and configuration. (Apache2, VSFTPD, Samba, and SSH)</v>
       </c>
       <c r="C8" s="3">
@@ -800,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>B45</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">HTML </v>
       </c>
       <c r="C9" s="3">
@@ -816,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>B46</f>
+        <f t="shared" si="0"/>
         <v>Cryptography, encryption, security keys and authentication introduction.</v>
       </c>
       <c r="C10" s="3">
@@ -831,14 +834,15 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f>B47</f>
+        <f t="shared" si="0"/>
         <v>GIT and Github.com basics.</v>
       </c>
       <c r="C11" s="3">
-        <f>2.5*20</f>
-        <v>50</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>25</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -846,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>B48</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Introduction to computer programming (Python, PHP, C, C++,  Java, and SQL) </v>
       </c>
       <c r="C12" s="3">
@@ -861,15 +865,14 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>B49</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Computer basics </v>
       </c>
       <c r="C13" s="3">
-        <f>2.5*10</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -878,7 +881,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>B50</f>
+        <f t="shared" si="0"/>
         <v>Networking.</v>
       </c>
       <c r="C14" s="3">
@@ -891,15 +894,14 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f>B51</f>
-        <v xml:space="preserve">Linux Vitalization.  </v>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -908,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>B52</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Microsoft </v>
       </c>
       <c r="C16" s="3">
@@ -922,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>B53</f>
+        <f t="shared" si="0"/>
         <v>Mathematics, base conversions, logic gates and computer science mathematics.</v>
       </c>
       <c r="C17" s="3">
@@ -938,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>B54</f>
+        <f t="shared" si="0"/>
         <v>Introduction to electronics and micro-controllers (Arduino)</v>
       </c>
       <c r="C18" s="3">
@@ -954,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>B55</f>
+        <f t="shared" si="0"/>
         <v>Year 1 Projects</v>
       </c>
       <c r="C19" s="3">
@@ -978,7 +980,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3">
         <f>SUM(D22:D34)</f>
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>45</v>
@@ -993,7 +995,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1006,7 +1008,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1019,7 +1021,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1032,7 +1034,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1071,7 +1073,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E28" s="3"/>
     </row>

--- a/CYBER-SECURITY-TIME.xlsx
+++ b/CYBER-SECURITY-TIME.xlsx
@@ -328,12 +328,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -346,8 +361,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,9 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F31491-DC8D-41DD-B00A-D5AA7D15CE53}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="20124" ySplit="7008" topLeftCell="F37"/>
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I11" sqref="I11"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B64" sqref="B39:B64"/>
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
@@ -781,7 +796,9 @@
       <c r="C7" s="3">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -980,7 +997,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3">
         <f>SUM(D22:D34)</f>
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>45</v>
@@ -1060,7 +1077,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3"/>
     </row>
